--- a/TiaAddin-Spin-ExcelReader/Templates/ConfigAppoggi.xlsx
+++ b/TiaAddin-Spin-ExcelReader/Templates/ConfigAppoggi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARONETTO G\Documents\GitHub\TiaAddIn-Spin\TiaAddin-Spin-ExcelReader\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7F1D2E-4BA7-415B-9877-3E3300A0C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61867FA-DDDC-4D23-9EAF-778B0ED0E941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27750" windowHeight="16440" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Nome</t>
   </si>
@@ -69,21 +69,6 @@
     <t>Nome tag io</t>
   </si>
   <si>
-    <t>{siemens_memory_type} {cad_memory_type} {bit_address} {byte_address} {cad_address} {cad_comment1} {cad_comment2} {cad_comment3} {cad_comment4} {cad_page} {cad_panel} {cad_type}</t>
-  </si>
-  <si>
-    <t>{siemens_memory_type}{byte_address}_{bit_address} - {cad_comment1} {cad_comment2} {cad_comment3} {cad_comment4}</t>
-  </si>
-  <si>
-    <t>{cad_memory_type}{byte_address}_{bit_address}</t>
-  </si>
-  <si>
-    <t>Nome variabile generata</t>
-  </si>
-  <si>
-    <t>Commento variabile generata</t>
-  </si>
-  <si>
     <t>Merker</t>
   </si>
   <si>
@@ -105,20 +90,71 @@
     <t>Nome Segmento divisione bit</t>
   </si>
   <si>
-    <t>Comment tag io</t>
-  </si>
-  <si>
     <t>Cad Export</t>
   </si>
   <si>
     <t>TYPE3</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>I0.0</t>
+  </si>
+  <si>
+    <t>I0.1</t>
+  </si>
+  <si>
+    <t>I0.2</t>
+  </si>
+  <si>
+    <t>I0.3</t>
+  </si>
+  <si>
+    <t>I0.4</t>
+  </si>
+  <si>
+    <t>I0.5</t>
+  </si>
+  <si>
+    <t>I0.6</t>
+  </si>
+  <si>
+    <t>I0.7</t>
+  </si>
+  <si>
+    <t>{siemens_memory_type}{byte_address}_{bit_address}</t>
+  </si>
+  <si>
+    <t>Default nome tag io</t>
+  </si>
+  <si>
+    <t>Default nome variabile generata</t>
+  </si>
+  <si>
+    <t>Nome variabile appoggio</t>
+  </si>
+  <si>
+    <t>Commento tag io</t>
+  </si>
+  <si>
+    <t>Commento variabile appoggio</t>
+  </si>
+  <si>
+    <t>Se si lascia sia Nome che Commento</t>
+  </si>
+  <si>
+    <t>{siemens_memory_type} {bit_address} {byte_address} {io_tag_name} {io_tag_comment} {support_variable_name} {support_variable_comment}</t>
+  </si>
+  <si>
+    <t>{siemens_memory_type}{byte_address}_{bit_address} - {io_tag_name} _ {io_tag_comment}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +215,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -209,14 +259,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -534,112 +591,114 @@
   <dimension ref="A1:X72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="114.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="112.7109375" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="10" max="24" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:24" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -661,7 +720,9 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -687,7 +748,9 @@
       <c r="C6" s="3">
         <v>195</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -707,7 +770,9 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -730,10 +795,12 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -759,7 +826,9 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -785,7 +854,9 @@
       <c r="C10" s="3">
         <v>196</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -805,7 +876,9 @@
       <c r="W10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -828,10 +901,12 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -927,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -953,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -997,10 +1072,10 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1023,10 +1098,10 @@
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1049,10 +1124,10 @@
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1075,10 +1150,10 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1100,12 +1175,6 @@
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1126,12 +1195,6 @@
       <c r="W23" s="5"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2112,12 +2175,13 @@
       <c r="W72" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C1:K1"/>
-    <mergeCell ref="E2:X2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C6" xr:uid="{F717952B-D4F9-4570-84C1-F92597681F3D}">
       <formula1>0</formula1>
       <formula2>99999</formula2>
